--- a/bad information mining/需要检测的页面/http___www.smskjg.com_.xlsx
+++ b/bad information mining/需要检测的页面/http___www.smskjg.com_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,46 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>('//www.smskjg.com/sms/2922/', 'http://www.smskjg.com/sms/2922/')</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>('//www.smskjg.com/sms/14360/', 'http://www.smskjg.com/sms/14360/')</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>('//www.smskjg.com/sms/6257/', 'http://www.smskjg.com/sms/6257/')</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>('//www.smskjg.com/sms/7938/', 'http://www.smskjg.com/sms/7938/')</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>('//www.smskjg.com/sms/75108/', 'http://www.smskjg.com/sms/75108/')</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
